--- a/DATA_goal/Junction_Flooding_320.xlsx
+++ b/DATA_goal/Junction_Flooding_320.xlsx
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,12 +465,12 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>45001.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45001.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.34</v>
+        <v>33.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.36</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.45</v>
+        <v>44.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.9</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.36</v>
+        <v>33.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.17</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.38</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.07</v>
+        <v>40.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45001.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.78</v>
+        <v>37.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.57</v>
+        <v>135.74</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.33</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45001.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.59</v>
+        <v>35.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.53</v>
+        <v>25.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_320.xlsx
+++ b/DATA_goal/Junction_Flooding_320.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45001.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45001.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.18</v>
+        <v>15.179</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.09</v>
+        <v>11.091</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>33.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.36</v>
+        <v>26.362</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.82</v>
+        <v>11.817</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.51</v>
+        <v>44.511</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8</v>
+        <v>8.000999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.61</v>
+        <v>11.612</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.34</v>
+        <v>13.342</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.324</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.71</v>
+        <v>3.714</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.9</v>
+        <v>16.895</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.5</v>
+        <v>10.498</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.339</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.79</v>
+        <v>175.793</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.62</v>
+        <v>33.619</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>22.17</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.61</v>
+        <v>11.607</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.071</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.39</v>
+        <v>22.392</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.38</v>
+        <v>10.382</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.03</v>
+        <v>14.028</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>40.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.06</v>
+        <v>6.063</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>11.86</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.74</v>
+        <v>8.737</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.152</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.09</v>
+        <v>26.095</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.74</v>
+        <v>20.742</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.25</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.78</v>
+        <v>37.784</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>6.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.15</v>
+        <v>9.148999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.45</v>
+        <v>10.452</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.22</v>
+        <v>11.216</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.897</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.25</v>
+        <v>13.247</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>8.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.905</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.663</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.74</v>
+        <v>135.743</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.33</v>
+        <v>26.332</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.43</v>
+        <v>17.426</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.119</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.561</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>18.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.917</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.1</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.98</v>
+        <v>10.984</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.51</v>
+        <v>34.512</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.756</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45001.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_320.xlsx
+++ b/DATA_goal/Junction_Flooding_320.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,88 +967,88 @@
         <v>45001.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.41</v>
+        <v>11.408</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.457000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.07</v>
+        <v>25.065</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.09</v>
+        <v>20.091</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.92</v>
+        <v>8.922000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.85</v>
+        <v>35.853</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.11</v>
+        <v>6.106</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>10.047</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.8</v>
+        <v>2.795</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.75</v>
+        <v>12.754</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.77</v>
+        <v>7.773</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.704</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.01</v>
+        <v>130.014</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.25</v>
+        <v>25.251</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.79</v>
+        <v>16.793</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.802</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.434</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.36</v>
+        <v>17.356</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.604</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.743</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>10.56</v>
@@ -1057,13 +1057,117 @@
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.61</v>
+        <v>32.607</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.601</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45001.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_320.xlsx
+++ b/DATA_goal/Junction_Flooding_320.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,88 +967,88 @@
         <v>45001.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.408</v>
+        <v>11.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.457000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.065</v>
+        <v>25.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.091</v>
+        <v>20.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.922000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.853</v>
+        <v>35.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.106</v>
+        <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.901999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.047</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.795</v>
+        <v>2.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.754</v>
+        <v>12.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.773</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.014</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.251</v>
+        <v>25.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.793</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.802</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.434</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.356</v>
+        <v>17.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.604</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.743</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>10.56</v>
@@ -1057,117 +1057,13 @@
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.607</v>
+        <v>32.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.601</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.413</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45001.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
